--- a/Collection_Interventions.xlsx
+++ b/Collection_Interventions.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOOGLE DRIVE\WEB MASTER\PYTHON\IDE PYCHARM\PycharmProjects\AKIGORA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOOGLE DRIVE\WEB MASTER\PYTHON\PYCHARM\PycharmProjects\AKIGORA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AAF4D5-EA02-4BA5-8539-BE4F5740D250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AD290-FD34-4350-887D-C351C72CB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{A0EDA4C3-3124-495E-B565-BC700B772DF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{A0EDA4C3-3124-495E-B565-BC700B772DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$I$1:$I$1000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="1350">
   <si>
     <t>Intitulé</t>
   </si>
@@ -4039,13 +4042,61 @@
   </si>
   <si>
     <t>Id_Interventions</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>Nombre_Heures</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>59.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4058,6 +4109,21 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4080,9 +4146,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4397,15 +4478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D97A4ED-A204-4FD8-B5D2-22572CBAE8F9}">
-  <dimension ref="A1:H533"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H533"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="9" max="9" width="79.53125" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1333</v>
       </c>
@@ -4430,8 +4514,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4456,8 +4543,9 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -4482,8 +4570,11 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4508,8 +4599,11 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -4534,8 +4628,11 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4560,8 +4657,11 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -4586,8 +4686,11 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -4612,8 +4715,15 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="4">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <f>SUM(I3:I609)</f>
+        <v>12896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -4638,8 +4748,11 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -4664,8 +4777,11 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -4690,8 +4806,11 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4716,8 +4835,11 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -4742,8 +4864,11 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -4768,8 +4893,11 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -4794,8 +4922,11 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -4820,8 +4951,11 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +4980,11 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4872,8 +5009,11 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -4898,8 +5038,11 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -4924,8 +5067,11 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5096,9 @@
       <c r="H21" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -4976,8 +5123,9 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -5002,8 +5150,11 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -5028,8 +5179,11 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -5054,8 +5208,11 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -5080,8 +5237,11 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -5106,8 +5266,11 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -5132,8 +5295,11 @@
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -5158,8 +5324,11 @@
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -5184,8 +5353,11 @@
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -5210,8 +5382,11 @@
       <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -5236,8 +5411,11 @@
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
@@ -5262,8 +5440,11 @@
       <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
@@ -5288,8 +5469,11 @@
       <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -5314,8 +5498,11 @@
       <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -5340,8 +5527,9 @@
       <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
@@ -5366,8 +5554,11 @@
       <c r="H37" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -5392,8 +5583,11 @@
       <c r="H38" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
@@ -5418,8 +5612,11 @@
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
@@ -5444,8 +5641,11 @@
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -5470,8 +5670,11 @@
       <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -5496,8 +5699,11 @@
       <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
@@ -5522,8 +5728,11 @@
       <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
@@ -5548,8 +5757,11 @@
       <c r="H44" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5574,8 +5786,11 @@
       <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>168</v>
       </c>
@@ -5600,8 +5815,11 @@
       <c r="H46" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
@@ -5626,8 +5844,11 @@
       <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>173</v>
       </c>
@@ -5652,8 +5873,11 @@
       <c r="H48" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -5678,8 +5902,11 @@
       <c r="H49" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -5704,8 +5931,11 @@
       <c r="H50" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -5730,8 +5960,11 @@
       <c r="H51" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>185</v>
       </c>
@@ -5756,8 +5989,11 @@
       <c r="H52" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
@@ -5782,8 +6018,11 @@
       <c r="H53" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>191</v>
       </c>
@@ -5808,8 +6047,11 @@
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -5834,8 +6076,11 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55" s="4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -5860,8 +6105,11 @@
       <c r="H56" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -5886,8 +6134,11 @@
       <c r="H57" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I57" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
@@ -5912,8 +6163,11 @@
       <c r="H58" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
@@ -5938,8 +6192,11 @@
       <c r="H59" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>209</v>
       </c>
@@ -5964,8 +6221,11 @@
       <c r="H60" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I60" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
@@ -5990,8 +6250,11 @@
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I61" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>211</v>
       </c>
@@ -6016,8 +6279,11 @@
       <c r="H62" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>214</v>
       </c>
@@ -6042,8 +6308,11 @@
       <c r="H63" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I63" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>217</v>
       </c>
@@ -6068,8 +6337,11 @@
       <c r="H64" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>219</v>
       </c>
@@ -6094,8 +6366,11 @@
       <c r="H65" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>221</v>
       </c>
@@ -6120,8 +6395,11 @@
       <c r="H66" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -6146,8 +6424,11 @@
       <c r="H67" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I67" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>226</v>
       </c>
@@ -6172,8 +6453,11 @@
       <c r="H68" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I68" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>230</v>
       </c>
@@ -6198,8 +6482,11 @@
       <c r="H69" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I69" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>234</v>
       </c>
@@ -6224,8 +6511,11 @@
       <c r="H70" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I70" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>237</v>
       </c>
@@ -6250,8 +6540,11 @@
       <c r="H71" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I71" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>240</v>
       </c>
@@ -6276,8 +6569,11 @@
       <c r="H72" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>243</v>
       </c>
@@ -6302,8 +6598,11 @@
       <c r="H73" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I73" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>247</v>
       </c>
@@ -6328,8 +6627,11 @@
       <c r="H74" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I74" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>253</v>
       </c>
@@ -6354,8 +6656,11 @@
       <c r="H75" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I75" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>257</v>
       </c>
@@ -6380,8 +6685,11 @@
       <c r="H76" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I76" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>260</v>
       </c>
@@ -6406,8 +6714,11 @@
       <c r="H77" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I77" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>263</v>
       </c>
@@ -6432,8 +6743,11 @@
       <c r="H78" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I78" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>267</v>
       </c>
@@ -6458,8 +6772,9 @@
       <c r="H79" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -6484,8 +6799,11 @@
       <c r="H80" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I80" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>273</v>
       </c>
@@ -6510,8 +6828,11 @@
       <c r="H81" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I81" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
@@ -6536,8 +6857,11 @@
       <c r="H82" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I82" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>276</v>
       </c>
@@ -6562,8 +6886,11 @@
       <c r="H83" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I83" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>280</v>
       </c>
@@ -6588,8 +6915,11 @@
       <c r="H84" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I84" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>283</v>
       </c>
@@ -6614,8 +6944,11 @@
       <c r="H85" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I85" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>286</v>
       </c>
@@ -6640,8 +6973,11 @@
       <c r="H86" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I86" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>288</v>
       </c>
@@ -6666,8 +7002,11 @@
       <c r="H87" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I87" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>291</v>
       </c>
@@ -6692,8 +7031,11 @@
       <c r="H88" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I88" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -6718,8 +7060,11 @@
       <c r="H89" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I89" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>296</v>
       </c>
@@ -6744,8 +7089,11 @@
       <c r="H90" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I90" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>300</v>
       </c>
@@ -6770,8 +7118,11 @@
       <c r="H91" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I91" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>302</v>
       </c>
@@ -6796,8 +7147,11 @@
       <c r="H92" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I92" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>305</v>
       </c>
@@ -6822,8 +7176,11 @@
       <c r="H93" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>308</v>
       </c>
@@ -6848,8 +7205,11 @@
       <c r="H94" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I94" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>312</v>
       </c>
@@ -6874,8 +7234,11 @@
       <c r="H95" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I95" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>316</v>
       </c>
@@ -6900,8 +7263,11 @@
       <c r="H96" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I96" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>318</v>
       </c>
@@ -6926,8 +7292,11 @@
       <c r="H97" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I97" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>321</v>
       </c>
@@ -6952,8 +7321,11 @@
       <c r="H98" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I98" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>323</v>
       </c>
@@ -6978,8 +7350,11 @@
       <c r="H99" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I99" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>325</v>
       </c>
@@ -7004,8 +7379,11 @@
       <c r="H100" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I100" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>327</v>
       </c>
@@ -7030,8 +7408,11 @@
       <c r="H101" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I101" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>329</v>
       </c>
@@ -7056,8 +7437,11 @@
       <c r="H102" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I102" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>331</v>
       </c>
@@ -7082,8 +7466,11 @@
       <c r="H103" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I103" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -7108,8 +7495,11 @@
       <c r="H104" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I104" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>337</v>
       </c>
@@ -7134,8 +7524,9 @@
       <c r="H105" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>339</v>
       </c>
@@ -7160,8 +7551,11 @@
       <c r="H106" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I106" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>343</v>
       </c>
@@ -7186,8 +7580,11 @@
       <c r="H107" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I107" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>347</v>
       </c>
@@ -7212,8 +7609,11 @@
       <c r="H108" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I108" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>349</v>
       </c>
@@ -7238,8 +7638,11 @@
       <c r="H109" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I109" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>352</v>
       </c>
@@ -7264,8 +7667,11 @@
       <c r="H110" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I110" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>354</v>
       </c>
@@ -7290,8 +7696,11 @@
       <c r="H111" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I111" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>356</v>
       </c>
@@ -7316,8 +7725,11 @@
       <c r="H112" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I112" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>360</v>
       </c>
@@ -7342,8 +7754,11 @@
       <c r="H113" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I113" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>363</v>
       </c>
@@ -7368,8 +7783,11 @@
       <c r="H114" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I114" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>366</v>
       </c>
@@ -7394,8 +7812,11 @@
       <c r="H115" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I115" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>368</v>
       </c>
@@ -7420,8 +7841,11 @@
       <c r="H116" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I116" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>372</v>
       </c>
@@ -7446,8 +7870,11 @@
       <c r="H117" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I117" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
@@ -7472,8 +7899,11 @@
       <c r="H118" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I118" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>378</v>
       </c>
@@ -7498,8 +7928,11 @@
       <c r="H119" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I119" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>382</v>
       </c>
@@ -7524,8 +7957,11 @@
       <c r="H120" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I120" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>384</v>
       </c>
@@ -7550,8 +7986,11 @@
       <c r="H121" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I121" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>386</v>
       </c>
@@ -7576,8 +8015,11 @@
       <c r="H122" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I122" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>389</v>
       </c>
@@ -7602,8 +8044,11 @@
       <c r="H123" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I123" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>390</v>
       </c>
@@ -7628,8 +8073,11 @@
       <c r="H124" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I124" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>392</v>
       </c>
@@ -7654,8 +8102,9 @@
       <c r="H125" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>394</v>
       </c>
@@ -7680,8 +8129,11 @@
       <c r="H126" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I126" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>397</v>
       </c>
@@ -7706,8 +8158,11 @@
       <c r="H127" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I127" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>401</v>
       </c>
@@ -7732,8 +8187,11 @@
       <c r="H128" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I128" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>403</v>
       </c>
@@ -7758,8 +8216,11 @@
       <c r="H129" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I129" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>407</v>
       </c>
@@ -7784,8 +8245,11 @@
       <c r="H130" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I130" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>411</v>
       </c>
@@ -7810,8 +8274,11 @@
       <c r="H131" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I131" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>415</v>
       </c>
@@ -7836,8 +8303,11 @@
       <c r="H132" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I132" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>420</v>
       </c>
@@ -7862,8 +8332,9 @@
       <c r="H133" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>421</v>
       </c>
@@ -7888,8 +8359,9 @@
       <c r="H134" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>422</v>
       </c>
@@ -7914,8 +8386,9 @@
       <c r="H135" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>423</v>
       </c>
@@ -7940,8 +8413,9 @@
       <c r="H136" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>427</v>
       </c>
@@ -7966,8 +8440,11 @@
       <c r="H137" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I137" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>430</v>
       </c>
@@ -7992,8 +8469,11 @@
       <c r="H138" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I138" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>433</v>
       </c>
@@ -8018,8 +8498,11 @@
       <c r="H139" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I139" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>437</v>
       </c>
@@ -8044,8 +8527,11 @@
       <c r="H140" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I140" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>440</v>
       </c>
@@ -8070,8 +8556,11 @@
       <c r="H141" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I141" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>442</v>
       </c>
@@ -8096,8 +8585,11 @@
       <c r="H142" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I142" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>446</v>
       </c>
@@ -8122,8 +8614,11 @@
       <c r="H143" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I143" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>448</v>
       </c>
@@ -8148,8 +8643,11 @@
       <c r="H144" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I144" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>451</v>
       </c>
@@ -8174,8 +8672,11 @@
       <c r="H145" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I145" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>453</v>
       </c>
@@ -8200,8 +8701,11 @@
       <c r="H146" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I146" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>456</v>
       </c>
@@ -8226,8 +8730,11 @@
       <c r="H147" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I147" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>460</v>
       </c>
@@ -8252,8 +8759,11 @@
       <c r="H148" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I148" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>462</v>
       </c>
@@ -8278,8 +8788,11 @@
       <c r="H149" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I149" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>463</v>
       </c>
@@ -8304,8 +8817,11 @@
       <c r="H150" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I150" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>466</v>
       </c>
@@ -8330,8 +8846,11 @@
       <c r="H151" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I151" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>469</v>
       </c>
@@ -8356,8 +8875,11 @@
       <c r="H152" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I152" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>471</v>
       </c>
@@ -8382,8 +8904,11 @@
       <c r="H153" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I153" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>473</v>
       </c>
@@ -8408,8 +8933,11 @@
       <c r="H154" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I154" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>476</v>
       </c>
@@ -8434,8 +8962,11 @@
       <c r="H155" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I155" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -8460,8 +8991,11 @@
       <c r="H156" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I156" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>480</v>
       </c>
@@ -8486,8 +9020,11 @@
       <c r="H157" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I157" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>482</v>
       </c>
@@ -8512,8 +9049,9 @@
       <c r="H158" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>485</v>
       </c>
@@ -8538,8 +9076,9 @@
       <c r="H159" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>487</v>
       </c>
@@ -8564,8 +9103,9 @@
       <c r="H160" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>490</v>
       </c>
@@ -8590,8 +9130,11 @@
       <c r="H161" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I161" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>492</v>
       </c>
@@ -8616,8 +9159,11 @@
       <c r="H162" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I162" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>494</v>
       </c>
@@ -8642,8 +9188,11 @@
       <c r="H163" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I163" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>496</v>
       </c>
@@ -8668,8 +9217,11 @@
       <c r="H164" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I164" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>498</v>
       </c>
@@ -8694,8 +9246,11 @@
       <c r="H165" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I165" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>500</v>
       </c>
@@ -8720,8 +9275,11 @@
       <c r="H166" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I166" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>501</v>
       </c>
@@ -8746,8 +9304,11 @@
       <c r="H167" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I167" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>505</v>
       </c>
@@ -8772,8 +9333,11 @@
       <c r="H168" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I168" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>507</v>
       </c>
@@ -8798,8 +9362,11 @@
       <c r="H169" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I169" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>509</v>
       </c>
@@ -8824,8 +9391,11 @@
       <c r="H170" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I170" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>511</v>
       </c>
@@ -8850,8 +9420,11 @@
       <c r="H171" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I171" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>513</v>
       </c>
@@ -8876,8 +9449,11 @@
       <c r="H172" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I172" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>517</v>
       </c>
@@ -8902,8 +9478,11 @@
       <c r="H173" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I173" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>521</v>
       </c>
@@ -8928,8 +9507,11 @@
       <c r="H174" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I174" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>524</v>
       </c>
@@ -8954,8 +9536,11 @@
       <c r="H175" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I175" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>526</v>
       </c>
@@ -8980,8 +9565,11 @@
       <c r="H176" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I176" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>528</v>
       </c>
@@ -9006,8 +9594,11 @@
       <c r="H177" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I177" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>531</v>
       </c>
@@ -9032,8 +9623,11 @@
       <c r="H178" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I178" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>533</v>
       </c>
@@ -9058,8 +9652,11 @@
       <c r="H179" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I179" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>535</v>
       </c>
@@ -9084,8 +9681,11 @@
       <c r="H180" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I180" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>539</v>
       </c>
@@ -9110,8 +9710,11 @@
       <c r="H181" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I181" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>541</v>
       </c>
@@ -9136,8 +9739,11 @@
       <c r="H182" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I182" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>544</v>
       </c>
@@ -9162,8 +9768,11 @@
       <c r="H183" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I183" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>547</v>
       </c>
@@ -9188,8 +9797,11 @@
       <c r="H184" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I184" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>550</v>
       </c>
@@ -9214,8 +9826,11 @@
       <c r="H185" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I185" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>552</v>
       </c>
@@ -9240,8 +9855,11 @@
       <c r="H186" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I186" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>554</v>
       </c>
@@ -9266,8 +9884,11 @@
       <c r="H187" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I187" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>557</v>
       </c>
@@ -9292,8 +9913,11 @@
       <c r="H188" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I188" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>559</v>
       </c>
@@ -9318,8 +9942,11 @@
       <c r="H189" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I189" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>561</v>
       </c>
@@ -9344,8 +9971,11 @@
       <c r="H190" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I190" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>563</v>
       </c>
@@ -9370,8 +10000,11 @@
       <c r="H191" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I191" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>565</v>
       </c>
@@ -9396,8 +10029,11 @@
       <c r="H192" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I192" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>566</v>
       </c>
@@ -9422,8 +10058,11 @@
       <c r="H193" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I193" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>568</v>
       </c>
@@ -9448,8 +10087,11 @@
       <c r="H194" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I194" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>569</v>
       </c>
@@ -9474,8 +10116,11 @@
       <c r="H195" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I195" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>570</v>
       </c>
@@ -9500,8 +10145,11 @@
       <c r="H196" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I196" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>571</v>
       </c>
@@ -9526,8 +10174,11 @@
       <c r="H197" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I197" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>574</v>
       </c>
@@ -9552,8 +10203,11 @@
       <c r="H198" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I198" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>576</v>
       </c>
@@ -9578,8 +10232,11 @@
       <c r="H199" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I199" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>580</v>
       </c>
@@ -9604,8 +10261,11 @@
       <c r="H200" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I200" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>583</v>
       </c>
@@ -9630,8 +10290,11 @@
       <c r="H201" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I201" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>585</v>
       </c>
@@ -9656,8 +10319,11 @@
       <c r="H202" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I202" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>587</v>
       </c>
@@ -9682,8 +10348,11 @@
       <c r="H203" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I203" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>589</v>
       </c>
@@ -9708,8 +10377,11 @@
       <c r="H204" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I204" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>593</v>
       </c>
@@ -9734,8 +10406,11 @@
       <c r="H205" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I205" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>594</v>
       </c>
@@ -9760,8 +10435,11 @@
       <c r="H206" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I206" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>595</v>
       </c>
@@ -9786,8 +10464,11 @@
       <c r="H207" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I207" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>597</v>
       </c>
@@ -9812,8 +10493,11 @@
       <c r="H208" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I208" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>598</v>
       </c>
@@ -9838,8 +10522,11 @@
       <c r="H209" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I209" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>601</v>
       </c>
@@ -9864,8 +10551,11 @@
       <c r="H210" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I210" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>602</v>
       </c>
@@ -9890,8 +10580,11 @@
       <c r="H211" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I211" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>606</v>
       </c>
@@ -9916,8 +10609,11 @@
       <c r="H212" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I212" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>609</v>
       </c>
@@ -9942,8 +10638,11 @@
       <c r="H213" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I213" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>613</v>
       </c>
@@ -9968,8 +10667,11 @@
       <c r="H214" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I214" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>614</v>
       </c>
@@ -9994,8 +10696,11 @@
       <c r="H215" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I215" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>617</v>
       </c>
@@ -10020,8 +10725,11 @@
       <c r="H216" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I216" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>619</v>
       </c>
@@ -10046,8 +10754,11 @@
       <c r="H217" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I217" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>621</v>
       </c>
@@ -10072,8 +10783,11 @@
       <c r="H218" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I218" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>624</v>
       </c>
@@ -10098,8 +10812,11 @@
       <c r="H219" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I219" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>626</v>
       </c>
@@ -10124,8 +10841,11 @@
       <c r="H220" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I220" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>629</v>
       </c>
@@ -10150,8 +10870,11 @@
       <c r="H221" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I221" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>631</v>
       </c>
@@ -10176,8 +10899,11 @@
       <c r="H222" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I222" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>633</v>
       </c>
@@ -10202,8 +10928,11 @@
       <c r="H223" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I223" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>635</v>
       </c>
@@ -10228,8 +10957,11 @@
       <c r="H224" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I224" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>638</v>
       </c>
@@ -10254,8 +10986,11 @@
       <c r="H225" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I225" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>641</v>
       </c>
@@ -10280,8 +11015,11 @@
       <c r="H226" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I226" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>644</v>
       </c>
@@ -10306,8 +11044,11 @@
       <c r="H227" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I227" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>647</v>
       </c>
@@ -10332,8 +11073,11 @@
       <c r="H228" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I228" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>650</v>
       </c>
@@ -10358,8 +11102,11 @@
       <c r="H229" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I229" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>654</v>
       </c>
@@ -10384,8 +11131,11 @@
       <c r="H230" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I230" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>656</v>
       </c>
@@ -10410,8 +11160,11 @@
       <c r="H231" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I231" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>660</v>
       </c>
@@ -10436,8 +11189,11 @@
       <c r="H232" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I232" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>664</v>
       </c>
@@ -10462,8 +11218,11 @@
       <c r="H233" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I233" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>667</v>
       </c>
@@ -10488,8 +11247,11 @@
       <c r="H234" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I234" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>670</v>
       </c>
@@ -10514,8 +11276,11 @@
       <c r="H235" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I235" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>672</v>
       </c>
@@ -10540,8 +11305,11 @@
       <c r="H236" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I236" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>675</v>
       </c>
@@ -10566,8 +11334,11 @@
       <c r="H237" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I237" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>679</v>
       </c>
@@ -10592,8 +11363,11 @@
       <c r="H238" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I238" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>682</v>
       </c>
@@ -10618,8 +11392,11 @@
       <c r="H239" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I239" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>686</v>
       </c>
@@ -10644,8 +11421,11 @@
       <c r="H240" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I240" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>689</v>
       </c>
@@ -10670,8 +11450,11 @@
       <c r="H241" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I241" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>692</v>
       </c>
@@ -10696,8 +11479,11 @@
       <c r="H242" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I242" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>695</v>
       </c>
@@ -10722,8 +11508,11 @@
       <c r="H243" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I243" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>697</v>
       </c>
@@ -10748,8 +11537,11 @@
       <c r="H244" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I244" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>699</v>
       </c>
@@ -10774,8 +11566,11 @@
       <c r="H245" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I245" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>702</v>
       </c>
@@ -10800,8 +11595,11 @@
       <c r="H246" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I246" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>704</v>
       </c>
@@ -10826,8 +11624,11 @@
       <c r="H247" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I247" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>706</v>
       </c>
@@ -10852,8 +11653,11 @@
       <c r="H248" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I248" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>708</v>
       </c>
@@ -10878,8 +11682,11 @@
       <c r="H249" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I249" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>710</v>
       </c>
@@ -10904,8 +11711,11 @@
       <c r="H250" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I250" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>713</v>
       </c>
@@ -10930,8 +11740,11 @@
       <c r="H251" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I251" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>716</v>
       </c>
@@ -10956,8 +11769,11 @@
       <c r="H252" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I252" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>718</v>
       </c>
@@ -10982,8 +11798,9 @@
       <c r="H253" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>721</v>
       </c>
@@ -11008,8 +11825,11 @@
       <c r="H254" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I254" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>725</v>
       </c>
@@ -11034,8 +11854,11 @@
       <c r="H255" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I255" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>728</v>
       </c>
@@ -11060,8 +11883,11 @@
       <c r="H256" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I256" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>731</v>
       </c>
@@ -11086,8 +11912,11 @@
       <c r="H257" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I257" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>734</v>
       </c>
@@ -11112,8 +11941,11 @@
       <c r="H258" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I258" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>738</v>
       </c>
@@ -11138,8 +11970,11 @@
       <c r="H259" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I259" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>742</v>
       </c>
@@ -11164,8 +11999,11 @@
       <c r="H260" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I260" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>746</v>
       </c>
@@ -11190,8 +12028,11 @@
       <c r="H261" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I261" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>747</v>
       </c>
@@ -11216,8 +12057,11 @@
       <c r="H262" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I262" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>749</v>
       </c>
@@ -11242,8 +12086,11 @@
       <c r="H263" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I263" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>750</v>
       </c>
@@ -11268,8 +12115,11 @@
       <c r="H264" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I264" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>751</v>
       </c>
@@ -11294,8 +12144,11 @@
       <c r="H265" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I265" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>752</v>
       </c>
@@ -11320,8 +12173,11 @@
       <c r="H266" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I266" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>754</v>
       </c>
@@ -11346,8 +12202,11 @@
       <c r="H267" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I267" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>758</v>
       </c>
@@ -11372,8 +12231,11 @@
       <c r="H268" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I268" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>760</v>
       </c>
@@ -11398,8 +12260,11 @@
       <c r="H269" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I269" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>762</v>
       </c>
@@ -11424,8 +12289,11 @@
       <c r="H270" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I270" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>765</v>
       </c>
@@ -11450,8 +12318,11 @@
       <c r="H271" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I271" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>767</v>
       </c>
@@ -11476,8 +12347,11 @@
       <c r="H272" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I272" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>769</v>
       </c>
@@ -11502,8 +12376,11 @@
       <c r="H273" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I273" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>771</v>
       </c>
@@ -11528,8 +12405,11 @@
       <c r="H274" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I274" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>773</v>
       </c>
@@ -11554,8 +12434,11 @@
       <c r="H275" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I275" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>775</v>
       </c>
@@ -11580,8 +12463,11 @@
       <c r="H276" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I276" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>778</v>
       </c>
@@ -11606,8 +12492,11 @@
       <c r="H277" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I277" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>781</v>
       </c>
@@ -11632,8 +12521,11 @@
       <c r="H278" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I278" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>784</v>
       </c>
@@ -11658,8 +12550,11 @@
       <c r="H279" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I279" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>786</v>
       </c>
@@ -11684,8 +12579,11 @@
       <c r="H280" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I280" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>789</v>
       </c>
@@ -11710,8 +12608,11 @@
       <c r="H281" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I281" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>790</v>
       </c>
@@ -11736,8 +12637,11 @@
       <c r="H282" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I282" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>793</v>
       </c>
@@ -11762,8 +12666,11 @@
       <c r="H283" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I283" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>797</v>
       </c>
@@ -11788,8 +12695,11 @@
       <c r="H284" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I284" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>799</v>
       </c>
@@ -11814,8 +12724,11 @@
       <c r="H285" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I285" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>801</v>
       </c>
@@ -11840,8 +12753,11 @@
       <c r="H286" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I286" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>803</v>
       </c>
@@ -11866,8 +12782,11 @@
       <c r="H287" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I287" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>805</v>
       </c>
@@ -11892,8 +12811,11 @@
       <c r="H288" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I288" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>807</v>
       </c>
@@ -11918,8 +12840,11 @@
       <c r="H289" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I289" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>809</v>
       </c>
@@ -11944,8 +12869,11 @@
       <c r="H290" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I290" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>811</v>
       </c>
@@ -11970,8 +12898,9 @@
       <c r="H291" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I291" s="6"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>817</v>
       </c>
@@ -11996,8 +12925,11 @@
       <c r="H292" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I292" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>818</v>
       </c>
@@ -12022,8 +12954,11 @@
       <c r="H293" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I293" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>821</v>
       </c>
@@ -12048,8 +12983,11 @@
       <c r="H294" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I294" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>823</v>
       </c>
@@ -12074,8 +13012,11 @@
       <c r="H295" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I295" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>826</v>
       </c>
@@ -12100,8 +13041,11 @@
       <c r="H296" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I296" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>828</v>
       </c>
@@ -12126,8 +13070,11 @@
       <c r="H297" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I297" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>830</v>
       </c>
@@ -12152,8 +13099,11 @@
       <c r="H298" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I298" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>832</v>
       </c>
@@ -12178,8 +13128,11 @@
       <c r="H299" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I299" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>835</v>
       </c>
@@ -12204,8 +13157,11 @@
       <c r="H300" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I300" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>838</v>
       </c>
@@ -12230,8 +13186,11 @@
       <c r="H301" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I301" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>840</v>
       </c>
@@ -12256,8 +13215,11 @@
       <c r="H302" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I302" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>842</v>
       </c>
@@ -12282,8 +13244,11 @@
       <c r="H303" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I303" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>843</v>
       </c>
@@ -12308,8 +13273,11 @@
       <c r="H304" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I304" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>846</v>
       </c>
@@ -12334,8 +13302,11 @@
       <c r="H305" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I305" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>848</v>
       </c>
@@ -12360,8 +13331,11 @@
       <c r="H306" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I306" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>851</v>
       </c>
@@ -12386,8 +13360,11 @@
       <c r="H307" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I307" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>854</v>
       </c>
@@ -12412,8 +13389,11 @@
       <c r="H308" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I308" s="4" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>856</v>
       </c>
@@ -12438,8 +13418,11 @@
       <c r="H309" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I309" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>858</v>
       </c>
@@ -12464,8 +13447,11 @@
       <c r="H310" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I310" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>860</v>
       </c>
@@ -12490,8 +13476,9 @@
       <c r="H311" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I311" s="4"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>862</v>
       </c>
@@ -12516,8 +13503,11 @@
       <c r="H312" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I312" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>865</v>
       </c>
@@ -12542,8 +13532,11 @@
       <c r="H313" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I313" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>868</v>
       </c>
@@ -12568,8 +13561,11 @@
       <c r="H314" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I314" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>870</v>
       </c>
@@ -12594,8 +13590,11 @@
       <c r="H315" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I315" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>871</v>
       </c>
@@ -12620,8 +13619,11 @@
       <c r="H316" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I316" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>874</v>
       </c>
@@ -12646,8 +13648,11 @@
       <c r="H317" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I317" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>878</v>
       </c>
@@ -12672,8 +13677,11 @@
       <c r="H318" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I318" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>881</v>
       </c>
@@ -12698,8 +13706,11 @@
       <c r="H319" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I319" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>883</v>
       </c>
@@ -12724,8 +13735,11 @@
       <c r="H320" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I320" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>885</v>
       </c>
@@ -12750,8 +13764,11 @@
       <c r="H321" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I321" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>887</v>
       </c>
@@ -12776,8 +13793,11 @@
       <c r="H322" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I322" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>890</v>
       </c>
@@ -12802,8 +13822,11 @@
       <c r="H323" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I323" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>892</v>
       </c>
@@ -12828,8 +13851,11 @@
       <c r="H324" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I324" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>896</v>
       </c>
@@ -12854,8 +13880,11 @@
       <c r="H325" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I325" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>899</v>
       </c>
@@ -12880,8 +13909,11 @@
       <c r="H326" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I326" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>900</v>
       </c>
@@ -12906,8 +13938,11 @@
       <c r="H327" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I327" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>903</v>
       </c>
@@ -12932,8 +13967,11 @@
       <c r="H328" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I328" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>904</v>
       </c>
@@ -12958,8 +13996,11 @@
       <c r="H329" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I329" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>908</v>
       </c>
@@ -12984,8 +14025,11 @@
       <c r="H330" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I330" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>911</v>
       </c>
@@ -13010,8 +14054,11 @@
       <c r="H331" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I331" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>913</v>
       </c>
@@ -13036,8 +14083,11 @@
       <c r="H332" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I332" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>915</v>
       </c>
@@ -13062,8 +14112,11 @@
       <c r="H333" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I333" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>918</v>
       </c>
@@ -13088,8 +14141,11 @@
       <c r="H334" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I334" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>921</v>
       </c>
@@ -13114,8 +14170,11 @@
       <c r="H335" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I335" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>922</v>
       </c>
@@ -13140,8 +14199,11 @@
       <c r="H336" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I336" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>926</v>
       </c>
@@ -13166,8 +14228,11 @@
       <c r="H337" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I337" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>927</v>
       </c>
@@ -13192,8 +14257,11 @@
       <c r="H338" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I338" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>928</v>
       </c>
@@ -13218,8 +14286,11 @@
       <c r="H339" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I339" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>932</v>
       </c>
@@ -13244,8 +14315,11 @@
       <c r="H340" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I340" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>934</v>
       </c>
@@ -13270,8 +14344,11 @@
       <c r="H341" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I341" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>935</v>
       </c>
@@ -13296,8 +14373,11 @@
       <c r="H342" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I342" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>937</v>
       </c>
@@ -13322,8 +14402,11 @@
       <c r="H343" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I343" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>938</v>
       </c>
@@ -13348,8 +14431,11 @@
       <c r="H344" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I344" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>940</v>
       </c>
@@ -13374,8 +14460,11 @@
       <c r="H345" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I345" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>941</v>
       </c>
@@ -13400,8 +14489,11 @@
       <c r="H346" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I346" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>945</v>
       </c>
@@ -13426,8 +14518,11 @@
       <c r="H347" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I347" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>947</v>
       </c>
@@ -13452,8 +14547,11 @@
       <c r="H348" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I348" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>948</v>
       </c>
@@ -13478,8 +14576,11 @@
       <c r="H349" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I349" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>950</v>
       </c>
@@ -13504,8 +14605,11 @@
       <c r="H350" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I350" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>954</v>
       </c>
@@ -13530,8 +14634,11 @@
       <c r="H351" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I351" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>956</v>
       </c>
@@ -13556,8 +14663,11 @@
       <c r="H352" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I352" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>958</v>
       </c>
@@ -13582,8 +14692,11 @@
       <c r="H353" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I353" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>960</v>
       </c>
@@ -13608,8 +14721,11 @@
       <c r="H354" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I354" s="4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>962</v>
       </c>
@@ -13634,8 +14750,11 @@
       <c r="H355" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I355" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>964</v>
       </c>
@@ -13660,8 +14779,11 @@
       <c r="H356" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I356" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>965</v>
       </c>
@@ -13686,8 +14808,11 @@
       <c r="H357" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I357" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>967</v>
       </c>
@@ -13712,8 +14837,11 @@
       <c r="H358" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I358" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>969</v>
       </c>
@@ -13738,8 +14866,11 @@
       <c r="H359" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I359" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>970</v>
       </c>
@@ -13764,8 +14895,11 @@
       <c r="H360" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I360" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>971</v>
       </c>
@@ -13790,8 +14924,11 @@
       <c r="H361" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I361" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>974</v>
       </c>
@@ -13816,8 +14953,11 @@
       <c r="H362" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I362" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>976</v>
       </c>
@@ -13842,8 +14982,11 @@
       <c r="H363" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I363" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>980</v>
       </c>
@@ -13868,8 +15011,11 @@
       <c r="H364" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I364" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>983</v>
       </c>
@@ -13894,8 +15040,11 @@
       <c r="H365" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I365" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>986</v>
       </c>
@@ -13920,8 +15069,11 @@
       <c r="H366" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I366" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>989</v>
       </c>
@@ -13946,8 +15098,11 @@
       <c r="H367" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I367" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>991</v>
       </c>
@@ -13972,8 +15127,11 @@
       <c r="H368" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I368" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>994</v>
       </c>
@@ -13998,8 +15156,11 @@
       <c r="H369" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I369" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>997</v>
       </c>
@@ -14024,8 +15185,11 @@
       <c r="H370" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I370" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>1000</v>
       </c>
@@ -14050,8 +15214,11 @@
       <c r="H371" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I371" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>1002</v>
       </c>
@@ -14076,8 +15243,11 @@
       <c r="H372" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I372" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>1004</v>
       </c>
@@ -14102,8 +15272,11 @@
       <c r="H373" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I373" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>1006</v>
       </c>
@@ -14128,8 +15301,11 @@
       <c r="H374" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I374" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>1010</v>
       </c>
@@ -14154,8 +15330,11 @@
       <c r="H375" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I375" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>1012</v>
       </c>
@@ -14180,8 +15359,11 @@
       <c r="H376" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I376" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>1013</v>
       </c>
@@ -14206,8 +15388,11 @@
       <c r="H377" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I377" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>1015</v>
       </c>
@@ -14232,8 +15417,11 @@
       <c r="H378" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I378" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14258,8 +15446,11 @@
       <c r="H379" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I379" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>1019</v>
       </c>
@@ -14284,8 +15475,11 @@
       <c r="H380" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I380" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>1020</v>
       </c>
@@ -14310,8 +15504,11 @@
       <c r="H381" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I381" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>1021</v>
       </c>
@@ -14336,8 +15533,11 @@
       <c r="H382" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I382" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>1024</v>
       </c>
@@ -14362,8 +15562,11 @@
       <c r="H383" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I383" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>1027</v>
       </c>
@@ -14388,8 +15591,11 @@
       <c r="H384" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I384" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>1028</v>
       </c>
@@ -14414,8 +15620,11 @@
       <c r="H385" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I385" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>1030</v>
       </c>
@@ -14440,8 +15649,11 @@
       <c r="H386" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I386" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>1032</v>
       </c>
@@ -14466,8 +15678,11 @@
       <c r="H387" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I387" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>1035</v>
       </c>
@@ -14492,8 +15707,11 @@
       <c r="H388" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I388" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>1038</v>
       </c>
@@ -14518,8 +15736,11 @@
       <c r="H389" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I389" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>1041</v>
       </c>
@@ -14544,8 +15765,11 @@
       <c r="H390" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I390" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>1042</v>
       </c>
@@ -14570,8 +15794,11 @@
       <c r="H391" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I391" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>1045</v>
       </c>
@@ -14596,8 +15823,11 @@
       <c r="H392" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I392" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>1047</v>
       </c>
@@ -14622,8 +15852,11 @@
       <c r="H393" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I393" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>1048</v>
       </c>
@@ -14648,8 +15881,11 @@
       <c r="H394" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I394" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>1050</v>
       </c>
@@ -14674,8 +15910,11 @@
       <c r="H395" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I395" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>1053</v>
       </c>
@@ -14700,8 +15939,11 @@
       <c r="H396" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I396" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>1054</v>
       </c>
@@ -14726,8 +15968,11 @@
       <c r="H397" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I397" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>1055</v>
       </c>
@@ -14752,8 +15997,11 @@
       <c r="H398" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I398" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14778,8 +16026,11 @@
       <c r="H399" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I399" s="4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>1057</v>
       </c>
@@ -14804,8 +16055,11 @@
       <c r="H400" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I400" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>1058</v>
       </c>
@@ -14830,8 +16084,11 @@
       <c r="H401" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I401" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>1059</v>
       </c>
@@ -14856,8 +16113,11 @@
       <c r="H402" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I402" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>1060</v>
       </c>
@@ -14882,8 +16142,11 @@
       <c r="H403" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I403" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>1061</v>
       </c>
@@ -14908,8 +16171,11 @@
       <c r="H404" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I404" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>1064</v>
       </c>
@@ -14934,8 +16200,11 @@
       <c r="H405" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I405" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>1066</v>
       </c>
@@ -14960,8 +16229,11 @@
       <c r="H406" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I406" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>1069</v>
       </c>
@@ -14986,8 +16258,11 @@
       <c r="H407" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I407" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>1071</v>
       </c>
@@ -15012,8 +16287,11 @@
       <c r="H408" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I408" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15038,8 +16316,11 @@
       <c r="H409" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I409" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>1076</v>
       </c>
@@ -15064,8 +16345,11 @@
       <c r="H410" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I410" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>1078</v>
       </c>
@@ -15090,8 +16374,11 @@
       <c r="H411" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I411" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>1080</v>
       </c>
@@ -15116,8 +16403,11 @@
       <c r="H412" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I412" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>1084</v>
       </c>
@@ -15142,8 +16432,11 @@
       <c r="H413" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I413" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>1086</v>
       </c>
@@ -15168,8 +16461,11 @@
       <c r="H414" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I414" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>1090</v>
       </c>
@@ -15194,8 +16490,11 @@
       <c r="H415" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I415" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>1092</v>
       </c>
@@ -15220,8 +16519,11 @@
       <c r="H416" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I416" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>1096</v>
       </c>
@@ -15246,8 +16548,11 @@
       <c r="H417" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I417" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>1098</v>
       </c>
@@ -15272,8 +16577,11 @@
       <c r="H418" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I418" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>1099</v>
       </c>
@@ -15298,8 +16606,11 @@
       <c r="H419" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I419" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15324,8 +16635,11 @@
       <c r="H420" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I420" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>1105</v>
       </c>
@@ -15350,8 +16664,11 @@
       <c r="H421" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I421" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
         <v>1106</v>
       </c>
@@ -15376,8 +16693,9 @@
       <c r="H422" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I422" s="6"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
         <v>1108</v>
       </c>
@@ -15402,8 +16720,11 @@
       <c r="H423" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I423" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
         <v>1109</v>
       </c>
@@ -15428,8 +16749,11 @@
       <c r="H424" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I424" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
         <v>1110</v>
       </c>
@@ -15454,8 +16778,11 @@
       <c r="H425" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I425" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A426" s="1" t="s">
         <v>1111</v>
       </c>
@@ -15480,8 +16807,11 @@
       <c r="H426" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I426" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>1114</v>
       </c>
@@ -15506,8 +16836,11 @@
       <c r="H427" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I427" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A428" s="1" t="s">
         <v>1115</v>
       </c>
@@ -15532,8 +16865,11 @@
       <c r="H428" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I428" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
         <v>1116</v>
       </c>
@@ -15558,8 +16894,11 @@
       <c r="H429" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I429" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
         <v>1117</v>
       </c>
@@ -15584,8 +16923,11 @@
       <c r="H430" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I430" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A431" s="1" t="s">
         <v>1118</v>
       </c>
@@ -15610,8 +16952,11 @@
       <c r="H431" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I431" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A432" s="1" t="s">
         <v>1119</v>
       </c>
@@ -15636,8 +16981,9 @@
       <c r="H432" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I432" s="6"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A433" s="1" t="s">
         <v>1121</v>
       </c>
@@ -15662,8 +17008,11 @@
       <c r="H433" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I433" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A434" s="1" t="s">
         <v>1122</v>
       </c>
@@ -15688,8 +17037,11 @@
       <c r="H434" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I434" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
         <v>1123</v>
       </c>
@@ -15714,8 +17066,11 @@
       <c r="H435" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I435" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A436" s="1" t="s">
         <v>1124</v>
       </c>
@@ -15740,8 +17095,11 @@
       <c r="H436" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I436" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A437" s="1" t="s">
         <v>1125</v>
       </c>
@@ -15766,8 +17124,11 @@
       <c r="H437" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I437" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A438" s="1" t="s">
         <v>1126</v>
       </c>
@@ -15792,8 +17153,11 @@
       <c r="H438" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I438" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
         <v>1130</v>
       </c>
@@ -15818,8 +17182,11 @@
       <c r="H439" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I439" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A440" s="1" t="s">
         <v>1133</v>
       </c>
@@ -15844,8 +17211,11 @@
       <c r="H440" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I440" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
         <v>1136</v>
       </c>
@@ -15870,8 +17240,11 @@
       <c r="H441" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I441" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A442" s="1" t="s">
         <v>1138</v>
       </c>
@@ -15896,8 +17269,11 @@
       <c r="H442" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I442" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A443" s="1" t="s">
         <v>1139</v>
       </c>
@@ -15922,8 +17298,11 @@
       <c r="H443" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I443" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A444" s="1" t="s">
         <v>1140</v>
       </c>
@@ -15948,8 +17327,11 @@
       <c r="H444" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I444" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
         <v>1142</v>
       </c>
@@ -15974,8 +17356,11 @@
       <c r="H445" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I445" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A446" s="1" t="s">
         <v>1144</v>
       </c>
@@ -16000,8 +17385,11 @@
       <c r="H446" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I446" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
         <v>1146</v>
       </c>
@@ -16026,8 +17414,11 @@
       <c r="H447" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I447" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A448" s="1" t="s">
         <v>1148</v>
       </c>
@@ -16052,8 +17443,11 @@
       <c r="H448" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I448" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A449" s="1" t="s">
         <v>1150</v>
       </c>
@@ -16078,8 +17472,11 @@
       <c r="H449" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I449" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A450" s="1" t="s">
         <v>1151</v>
       </c>
@@ -16104,8 +17501,11 @@
       <c r="H450" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I450" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A451" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16130,8 +17530,11 @@
       <c r="H451" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I451" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A452" s="1" t="s">
         <v>1156</v>
       </c>
@@ -16156,8 +17559,11 @@
       <c r="H452" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I452" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A453" s="1" t="s">
         <v>1157</v>
       </c>
@@ -16182,8 +17588,11 @@
       <c r="H453" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I453" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A454" s="1" t="s">
         <v>1160</v>
       </c>
@@ -16208,8 +17617,11 @@
       <c r="H454" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I454" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A455" s="1" t="s">
         <v>1162</v>
       </c>
@@ -16234,8 +17646,11 @@
       <c r="H455" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I455" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A456" s="1" t="s">
         <v>1163</v>
       </c>
@@ -16260,8 +17675,11 @@
       <c r="H456" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I456" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A457" s="1" t="s">
         <v>1165</v>
       </c>
@@ -16286,8 +17704,11 @@
       <c r="H457" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I457" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A458" s="1" t="s">
         <v>1167</v>
       </c>
@@ -16312,8 +17733,11 @@
       <c r="H458" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I458" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A459" s="1" t="s">
         <v>1169</v>
       </c>
@@ -16338,8 +17762,11 @@
       <c r="H459" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I459" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A460" s="1" t="s">
         <v>1171</v>
       </c>
@@ -16364,8 +17791,11 @@
       <c r="H460" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I460" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A461" s="1" t="s">
         <v>1173</v>
       </c>
@@ -16390,8 +17820,9 @@
       <c r="H461" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I461" s="6"/>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A462" s="1" t="s">
         <v>1175</v>
       </c>
@@ -16416,8 +17847,9 @@
       <c r="H462" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I462" s="6"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A463" s="1" t="s">
         <v>1177</v>
       </c>
@@ -16442,8 +17874,11 @@
       <c r="H463" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I463" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A464" s="1" t="s">
         <v>1179</v>
       </c>
@@ -16468,8 +17903,11 @@
       <c r="H464" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I464" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A465" s="1" t="s">
         <v>1181</v>
       </c>
@@ -16494,8 +17932,11 @@
       <c r="H465" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I465" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A466" s="1" t="s">
         <v>1183</v>
       </c>
@@ -16520,8 +17961,11 @@
       <c r="H466" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I466" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A467" s="1" t="s">
         <v>1186</v>
       </c>
@@ -16546,8 +17990,11 @@
       <c r="H467" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I467" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A468" s="1" t="s">
         <v>1189</v>
       </c>
@@ -16572,8 +18019,11 @@
       <c r="H468" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I468" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
         <v>1191</v>
       </c>
@@ -16598,8 +18048,11 @@
       <c r="H469" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I469" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A470" s="1" t="s">
         <v>1192</v>
       </c>
@@ -16624,8 +18077,11 @@
       <c r="H470" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I470" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
         <v>1193</v>
       </c>
@@ -16650,8 +18106,11 @@
       <c r="H471" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I471" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A472" s="1" t="s">
         <v>1196</v>
       </c>
@@ -16676,8 +18135,11 @@
       <c r="H472" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I472" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A473" s="1" t="s">
         <v>1197</v>
       </c>
@@ -16702,8 +18164,11 @@
       <c r="H473" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I473" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A474" s="1" t="s">
         <v>1200</v>
       </c>
@@ -16728,8 +18193,11 @@
       <c r="H474" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I474" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A475" s="1" t="s">
         <v>1201</v>
       </c>
@@ -16754,8 +18222,11 @@
       <c r="H475" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I475" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A476" s="1" t="s">
         <v>1202</v>
       </c>
@@ -16780,8 +18251,11 @@
       <c r="H476" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I476" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A477" s="1" t="s">
         <v>1203</v>
       </c>
@@ -16806,8 +18280,11 @@
       <c r="H477" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I477" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A478" s="1" t="s">
         <v>1204</v>
       </c>
@@ -16832,8 +18309,11 @@
       <c r="H478" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I478" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A479" s="1" t="s">
         <v>1207</v>
       </c>
@@ -16858,8 +18338,11 @@
       <c r="H479" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I479" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A480" s="1" t="s">
         <v>1210</v>
       </c>
@@ -16884,8 +18367,11 @@
       <c r="H480" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I480" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A481" s="1" t="s">
         <v>1211</v>
       </c>
@@ -16910,8 +18396,11 @@
       <c r="H481" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I481" s="4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A482" s="1" t="s">
         <v>1212</v>
       </c>
@@ -16936,8 +18425,11 @@
       <c r="H482" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I482" s="4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A483" s="1" t="s">
         <v>1213</v>
       </c>
@@ -16962,8 +18454,11 @@
       <c r="H483" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I483" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A484" s="1" t="s">
         <v>1214</v>
       </c>
@@ -16988,8 +18483,9 @@
       <c r="H484" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I484" s="6"/>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A485" s="1" t="s">
         <v>1215</v>
       </c>
@@ -17014,8 +18510,9 @@
       <c r="H485" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I485" s="6"/>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A486" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17040,8 +18537,11 @@
       <c r="H486" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I486" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A487" s="1" t="s">
         <v>1218</v>
       </c>
@@ -17066,8 +18566,11 @@
       <c r="H487" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I487" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A488" s="1" t="s">
         <v>1222</v>
       </c>
@@ -17092,8 +18595,11 @@
       <c r="H488" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I488" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A489" s="1" t="s">
         <v>1225</v>
       </c>
@@ -17118,8 +18624,11 @@
       <c r="H489" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I489" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A490" s="1" t="s">
         <v>1229</v>
       </c>
@@ -17144,8 +18653,11 @@
       <c r="H490" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I490" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A491" s="1" t="s">
         <v>1231</v>
       </c>
@@ -17170,8 +18682,11 @@
       <c r="H491" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I491" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A492" s="1" t="s">
         <v>1233</v>
       </c>
@@ -17196,8 +18711,11 @@
       <c r="H492" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I492" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A493" s="1" t="s">
         <v>1235</v>
       </c>
@@ -17222,8 +18740,11 @@
       <c r="H493" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I493" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A494" s="1" t="s">
         <v>1238</v>
       </c>
@@ -17248,8 +18769,11 @@
       <c r="H494" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I494" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A495" s="1" t="s">
         <v>1240</v>
       </c>
@@ -17274,8 +18798,9 @@
       <c r="H495" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I495" s="6"/>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A496" s="1" t="s">
         <v>1242</v>
       </c>
@@ -17300,8 +18825,11 @@
       <c r="H496" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I496" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A497" s="1" t="s">
         <v>1243</v>
       </c>
@@ -17326,8 +18854,11 @@
       <c r="H497" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I497" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A498" s="1" t="s">
         <v>1245</v>
       </c>
@@ -17352,8 +18883,11 @@
       <c r="H498" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I498" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A499" s="1" t="s">
         <v>1246</v>
       </c>
@@ -17378,8 +18912,11 @@
       <c r="H499" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I499" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A500" s="1" t="s">
         <v>1248</v>
       </c>
@@ -17404,8 +18941,11 @@
       <c r="H500" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I500" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A501" s="1" t="s">
         <v>1251</v>
       </c>
@@ -17430,8 +18970,11 @@
       <c r="H501" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I501" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A502" s="1" t="s">
         <v>1252</v>
       </c>
@@ -17456,8 +18999,11 @@
       <c r="H502" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I502" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A503" s="1" t="s">
         <v>1256</v>
       </c>
@@ -17482,8 +19028,11 @@
       <c r="H503" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I503" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A504" s="1" t="s">
         <v>1257</v>
       </c>
@@ -17508,8 +19057,11 @@
       <c r="H504" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I504" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A505" s="1" t="s">
         <v>1259</v>
       </c>
@@ -17534,8 +19086,11 @@
       <c r="H505" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I505" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A506" s="1" t="s">
         <v>1261</v>
       </c>
@@ -17560,8 +19115,11 @@
       <c r="H506" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I506" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A507" s="1" t="s">
         <v>1264</v>
       </c>
@@ -17586,8 +19144,11 @@
       <c r="H507" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I507" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A508" s="1" t="s">
         <v>1267</v>
       </c>
@@ -17612,8 +19173,11 @@
       <c r="H508" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I508" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A509" s="1" t="s">
         <v>1269</v>
       </c>
@@ -17638,8 +19202,11 @@
       <c r="H509" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I509" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A510" s="1" t="s">
         <v>1271</v>
       </c>
@@ -17664,8 +19231,11 @@
       <c r="H510" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I510" s="4" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A511" s="1" t="s">
         <v>1273</v>
       </c>
@@ -17690,8 +19260,11 @@
       <c r="H511" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I511" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A512" s="1" t="s">
         <v>1274</v>
       </c>
@@ -17716,8 +19289,9 @@
       <c r="H512" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I512" s="6"/>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A513" s="1" t="s">
         <v>1276</v>
       </c>
@@ -17742,8 +19316,11 @@
       <c r="H513" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I513" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A514" s="1" t="s">
         <v>1279</v>
       </c>
@@ -17768,8 +19345,9 @@
       <c r="H514" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I514" s="6"/>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
         <v>1281</v>
       </c>
@@ -17794,8 +19372,11 @@
       <c r="H515" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I515" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A516" s="1" t="s">
         <v>1283</v>
       </c>
@@ -17820,8 +19401,11 @@
       <c r="H516" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I516" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A517" s="1" t="s">
         <v>1285</v>
       </c>
@@ -17846,8 +19430,11 @@
       <c r="H517" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I517" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A518" s="1" t="s">
         <v>1287</v>
       </c>
@@ -17872,8 +19459,11 @@
       <c r="H518" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I518" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A519" s="1" t="s">
         <v>1289</v>
       </c>
@@ -17898,8 +19488,11 @@
       <c r="H519" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I519" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A520" s="1" t="s">
         <v>1292</v>
       </c>
@@ -17924,8 +19517,11 @@
       <c r="H520" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I520" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A521" s="1" t="s">
         <v>1293</v>
       </c>
@@ -17950,8 +19546,11 @@
       <c r="H521" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I521" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A522" s="1" t="s">
         <v>1295</v>
       </c>
@@ -17976,8 +19575,9 @@
       <c r="H522" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I522" s="6"/>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A523" s="1" t="s">
         <v>1299</v>
       </c>
@@ -18002,8 +19602,11 @@
       <c r="H523" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I523" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A524" s="1" t="s">
         <v>1302</v>
       </c>
@@ -18028,8 +19631,11 @@
       <c r="H524" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I524" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A525" s="1" t="s">
         <v>1305</v>
       </c>
@@ -18054,8 +19660,11 @@
       <c r="H525" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I525" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A526" s="1" t="s">
         <v>1308</v>
       </c>
@@ -18080,8 +19689,11 @@
       <c r="H526" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I526" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A527" s="1" t="s">
         <v>1311</v>
       </c>
@@ -18106,8 +19718,11 @@
       <c r="H527" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I527" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A528" s="1" t="s">
         <v>1314</v>
       </c>
@@ -18132,8 +19747,11 @@
       <c r="H528" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I528" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A529" s="1" t="s">
         <v>1315</v>
       </c>
@@ -18158,8 +19776,11 @@
       <c r="H529" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I529" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A530" s="1" t="s">
         <v>1319</v>
       </c>
@@ -18184,8 +19805,11 @@
       <c r="H530" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I530" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A531" s="1" t="s">
         <v>1322</v>
       </c>
@@ -18210,8 +19834,11 @@
       <c r="H531" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I531" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A532" s="1" t="s">
         <v>1326</v>
       </c>
@@ -18236,8 +19863,9 @@
       <c r="H532" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I532" s="6"/>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A533" s="1" t="s">
         <v>1330</v>
       </c>
@@ -18262,8 +19890,1501 @@
       <c r="H533" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="I533" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I534" s="6"/>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I535" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I536" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I537" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I538" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I539" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I540" s="6"/>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I541" s="6"/>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I542" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I543" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I544" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="545" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I545" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I546" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I547" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I548" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I549" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I550" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="551" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I551" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="552" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I552" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I553" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I554" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="555" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I555" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="556" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I556" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="557" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I557" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="558" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I558" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I559" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="560" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I560" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="561" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I561" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="562" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I562" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="563" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I563" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I564" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="565" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I565" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="566" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I566" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="567" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I567" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I568" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I569" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="570" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I570" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="571" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I571" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I572" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I573" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I574" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I575" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I576" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I577" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="578" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I578" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="579" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I579" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I580" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="581" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I581" s="6"/>
+    </row>
+    <row r="582" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I582" s="6"/>
+    </row>
+    <row r="583" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I583" s="6"/>
+    </row>
+    <row r="584" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I584" s="6"/>
+    </row>
+    <row r="585" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I585" s="6"/>
+    </row>
+    <row r="586" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I586" s="6"/>
+    </row>
+    <row r="587" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I587" s="6"/>
+    </row>
+    <row r="588" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I588" s="6"/>
+    </row>
+    <row r="589" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I589" s="6"/>
+    </row>
+    <row r="590" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I590" s="6"/>
+    </row>
+    <row r="591" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I591" s="6"/>
+    </row>
+    <row r="592" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I592" s="6"/>
+    </row>
+    <row r="593" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I593" s="6"/>
+    </row>
+    <row r="594" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I594" s="6"/>
+    </row>
+    <row r="595" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I595" s="6"/>
+    </row>
+    <row r="596" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I596" s="6"/>
+    </row>
+    <row r="597" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I597" s="6"/>
+    </row>
+    <row r="598" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I598" s="6"/>
+    </row>
+    <row r="599" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I599" s="6"/>
+    </row>
+    <row r="600" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I600" s="6"/>
+    </row>
+    <row r="601" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I601" s="6"/>
+    </row>
+    <row r="602" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I602" s="6"/>
+    </row>
+    <row r="603" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I603" s="6"/>
+    </row>
+    <row r="604" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I604" s="6"/>
+    </row>
+    <row r="605" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I605" s="6"/>
+    </row>
+    <row r="606" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I606" s="6"/>
+    </row>
+    <row r="607" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I607" s="6"/>
+    </row>
+    <row r="608" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I608" s="6"/>
+    </row>
+    <row r="609" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I609" s="6"/>
+    </row>
+    <row r="610" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I610" s="6"/>
+    </row>
+    <row r="611" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I611" s="6"/>
+    </row>
+    <row r="612" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I612" s="6"/>
+    </row>
+    <row r="613" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I613" s="6"/>
+    </row>
+    <row r="614" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I614" s="6"/>
+    </row>
+    <row r="615" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I615" s="6"/>
+    </row>
+    <row r="616" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I616" s="6"/>
+    </row>
+    <row r="617" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I617" s="6"/>
+    </row>
+    <row r="618" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I618" s="6"/>
+    </row>
+    <row r="619" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I619" s="6"/>
+    </row>
+    <row r="620" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I620" s="6"/>
+    </row>
+    <row r="621" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I621" s="6"/>
+    </row>
+    <row r="622" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I622" s="6"/>
+    </row>
+    <row r="623" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I623" s="6"/>
+    </row>
+    <row r="624" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I624" s="6"/>
+    </row>
+    <row r="625" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I625" s="6"/>
+    </row>
+    <row r="626" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I626" s="6"/>
+    </row>
+    <row r="627" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I627" s="6"/>
+    </row>
+    <row r="628" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I628" s="6"/>
+    </row>
+    <row r="629" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I629" s="6"/>
+    </row>
+    <row r="630" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I630" s="6"/>
+    </row>
+    <row r="631" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I631" s="6"/>
+    </row>
+    <row r="632" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I632" s="6"/>
+    </row>
+    <row r="633" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I633" s="6"/>
+    </row>
+    <row r="634" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I634" s="6"/>
+    </row>
+    <row r="635" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I635" s="6"/>
+    </row>
+    <row r="636" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I636" s="6"/>
+    </row>
+    <row r="637" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I637" s="6"/>
+    </row>
+    <row r="638" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I638" s="6"/>
+    </row>
+    <row r="639" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I639" s="6"/>
+    </row>
+    <row r="640" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I640" s="6"/>
+    </row>
+    <row r="641" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I641" s="6"/>
+    </row>
+    <row r="642" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I642" s="6"/>
+    </row>
+    <row r="643" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I643" s="6"/>
+    </row>
+    <row r="644" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I644" s="6"/>
+    </row>
+    <row r="645" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I645" s="6"/>
+    </row>
+    <row r="646" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I646" s="6"/>
+    </row>
+    <row r="647" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I647" s="6"/>
+    </row>
+    <row r="648" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I648" s="6"/>
+    </row>
+    <row r="649" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I649" s="6"/>
+    </row>
+    <row r="650" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I650" s="6"/>
+    </row>
+    <row r="651" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I651" s="6"/>
+    </row>
+    <row r="652" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I652" s="6"/>
+    </row>
+    <row r="653" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I653" s="6"/>
+    </row>
+    <row r="654" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I654" s="6"/>
+    </row>
+    <row r="655" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I655" s="6"/>
+    </row>
+    <row r="656" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I656" s="6"/>
+    </row>
+    <row r="657" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I657" s="6"/>
+    </row>
+    <row r="658" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I658" s="6"/>
+    </row>
+    <row r="659" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I659" s="6"/>
+    </row>
+    <row r="660" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I660" s="6"/>
+    </row>
+    <row r="661" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I661" s="6"/>
+    </row>
+    <row r="662" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I662" s="6"/>
+    </row>
+    <row r="663" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I663" s="6"/>
+    </row>
+    <row r="664" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I664" s="6"/>
+    </row>
+    <row r="665" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I665" s="6"/>
+    </row>
+    <row r="666" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I666" s="6"/>
+    </row>
+    <row r="667" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I667" s="6"/>
+    </row>
+    <row r="668" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I668" s="6"/>
+    </row>
+    <row r="669" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I669" s="6"/>
+    </row>
+    <row r="670" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I670" s="6"/>
+    </row>
+    <row r="671" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I671" s="6"/>
+    </row>
+    <row r="672" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I672" s="6"/>
+    </row>
+    <row r="673" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I673" s="6"/>
+    </row>
+    <row r="674" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I674" s="6"/>
+    </row>
+    <row r="675" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I675" s="6"/>
+    </row>
+    <row r="676" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I676" s="6"/>
+    </row>
+    <row r="677" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I677" s="6"/>
+    </row>
+    <row r="678" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I678" s="6"/>
+    </row>
+    <row r="679" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I679" s="6"/>
+    </row>
+    <row r="680" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I680" s="6"/>
+    </row>
+    <row r="681" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I681" s="6"/>
+    </row>
+    <row r="682" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I682" s="6"/>
+    </row>
+    <row r="683" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I683" s="6"/>
+    </row>
+    <row r="684" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I684" s="6"/>
+    </row>
+    <row r="685" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I685" s="6"/>
+    </row>
+    <row r="686" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I686" s="6"/>
+    </row>
+    <row r="687" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I687" s="6"/>
+    </row>
+    <row r="688" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I688" s="6"/>
+    </row>
+    <row r="689" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I689" s="6"/>
+    </row>
+    <row r="690" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I690" s="6"/>
+    </row>
+    <row r="691" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I691" s="6"/>
+    </row>
+    <row r="692" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I692" s="6"/>
+    </row>
+    <row r="693" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I693" s="6"/>
+    </row>
+    <row r="694" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I694" s="6"/>
+    </row>
+    <row r="695" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I695" s="6"/>
+    </row>
+    <row r="696" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I696" s="6"/>
+    </row>
+    <row r="697" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I697" s="6"/>
+    </row>
+    <row r="698" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I698" s="6"/>
+    </row>
+    <row r="699" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I699" s="6"/>
+    </row>
+    <row r="700" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I700" s="6"/>
+    </row>
+    <row r="701" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I701" s="6"/>
+    </row>
+    <row r="702" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I702" s="6"/>
+    </row>
+    <row r="703" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I703" s="6"/>
+    </row>
+    <row r="704" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I704" s="6"/>
+    </row>
+    <row r="705" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I705" s="6"/>
+    </row>
+    <row r="706" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I706" s="6"/>
+    </row>
+    <row r="707" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I707" s="6"/>
+    </row>
+    <row r="708" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I708" s="6"/>
+    </row>
+    <row r="709" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I709" s="6"/>
+    </row>
+    <row r="710" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I710" s="6"/>
+    </row>
+    <row r="711" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I711" s="6"/>
+    </row>
+    <row r="712" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I712" s="6"/>
+    </row>
+    <row r="713" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I713" s="6"/>
+    </row>
+    <row r="714" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I714" s="6"/>
+    </row>
+    <row r="715" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I715" s="6"/>
+    </row>
+    <row r="716" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I716" s="6"/>
+    </row>
+    <row r="717" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I717" s="6"/>
+    </row>
+    <row r="718" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I718" s="6"/>
+    </row>
+    <row r="719" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I719" s="6"/>
+    </row>
+    <row r="720" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I720" s="6"/>
+    </row>
+    <row r="721" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I721" s="6"/>
+    </row>
+    <row r="722" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I722" s="6"/>
+    </row>
+    <row r="723" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I723" s="6"/>
+    </row>
+    <row r="724" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I724" s="6"/>
+    </row>
+    <row r="725" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I725" s="6"/>
+    </row>
+    <row r="726" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I726" s="6"/>
+    </row>
+    <row r="727" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I727" s="6"/>
+    </row>
+    <row r="728" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I728" s="6"/>
+    </row>
+    <row r="729" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I729" s="6"/>
+    </row>
+    <row r="730" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I730" s="6"/>
+    </row>
+    <row r="731" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I731" s="6"/>
+    </row>
+    <row r="732" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I732" s="6"/>
+    </row>
+    <row r="733" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I733" s="6"/>
+    </row>
+    <row r="734" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I734" s="6"/>
+    </row>
+    <row r="735" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I735" s="6"/>
+    </row>
+    <row r="736" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I736" s="6"/>
+    </row>
+    <row r="737" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I737" s="6"/>
+    </row>
+    <row r="738" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I738" s="6"/>
+    </row>
+    <row r="739" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I739" s="6"/>
+    </row>
+    <row r="740" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I740" s="6"/>
+    </row>
+    <row r="741" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I741" s="6"/>
+    </row>
+    <row r="742" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I742" s="6"/>
+    </row>
+    <row r="743" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I743" s="6"/>
+    </row>
+    <row r="744" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I744" s="6"/>
+    </row>
+    <row r="745" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I745" s="6"/>
+    </row>
+    <row r="746" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I746" s="6"/>
+    </row>
+    <row r="747" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I747" s="6"/>
+    </row>
+    <row r="748" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I748" s="6"/>
+    </row>
+    <row r="749" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I749" s="6"/>
+    </row>
+    <row r="750" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I750" s="6"/>
+    </row>
+    <row r="751" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I751" s="6"/>
+    </row>
+    <row r="752" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I752" s="6"/>
+    </row>
+    <row r="753" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I753" s="6"/>
+    </row>
+    <row r="754" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I754" s="6"/>
+    </row>
+    <row r="755" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I755" s="6"/>
+    </row>
+    <row r="756" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I756" s="6"/>
+    </row>
+    <row r="757" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I757" s="6"/>
+    </row>
+    <row r="758" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I758" s="6"/>
+    </row>
+    <row r="759" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I759" s="6"/>
+    </row>
+    <row r="760" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I760" s="6"/>
+    </row>
+    <row r="761" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I761" s="6"/>
+    </row>
+    <row r="762" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I762" s="6"/>
+    </row>
+    <row r="763" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I763" s="6"/>
+    </row>
+    <row r="764" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I764" s="6"/>
+    </row>
+    <row r="765" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I765" s="6"/>
+    </row>
+    <row r="766" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I766" s="6"/>
+    </row>
+    <row r="767" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I767" s="6"/>
+    </row>
+    <row r="768" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I768" s="6"/>
+    </row>
+    <row r="769" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I769" s="6"/>
+    </row>
+    <row r="770" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I770" s="6"/>
+    </row>
+    <row r="771" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I771" s="6"/>
+    </row>
+    <row r="772" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I772" s="6"/>
+    </row>
+    <row r="773" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I773" s="6"/>
+    </row>
+    <row r="774" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I774" s="6"/>
+    </row>
+    <row r="775" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I775" s="6"/>
+    </row>
+    <row r="776" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I776" s="6"/>
+    </row>
+    <row r="777" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I777" s="6"/>
+    </row>
+    <row r="778" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I778" s="6"/>
+    </row>
+    <row r="779" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I779" s="6"/>
+    </row>
+    <row r="780" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I780" s="6"/>
+    </row>
+    <row r="781" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I781" s="6"/>
+    </row>
+    <row r="782" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I782" s="6"/>
+    </row>
+    <row r="783" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I783" s="6"/>
+    </row>
+    <row r="784" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I784" s="6"/>
+    </row>
+    <row r="785" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I785" s="6"/>
+    </row>
+    <row r="786" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I786" s="6"/>
+    </row>
+    <row r="787" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I787" s="6"/>
+    </row>
+    <row r="788" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I788" s="6"/>
+    </row>
+    <row r="789" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I789" s="6"/>
+    </row>
+    <row r="790" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I790" s="6"/>
+    </row>
+    <row r="791" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I791" s="6"/>
+    </row>
+    <row r="792" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I792" s="6"/>
+    </row>
+    <row r="793" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I793" s="6"/>
+    </row>
+    <row r="794" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I794" s="6"/>
+    </row>
+    <row r="795" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I795" s="6"/>
+    </row>
+    <row r="796" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I796" s="6"/>
+    </row>
+    <row r="797" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I797" s="6"/>
+    </row>
+    <row r="798" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I798" s="6"/>
+    </row>
+    <row r="799" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I799" s="6"/>
+    </row>
+    <row r="800" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I800" s="6"/>
+    </row>
+    <row r="801" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I801" s="6"/>
+    </row>
+    <row r="802" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I802" s="6"/>
+    </row>
+    <row r="803" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I803" s="6"/>
+    </row>
+    <row r="804" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I804" s="6"/>
+    </row>
+    <row r="805" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I805" s="6"/>
+    </row>
+    <row r="806" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I806" s="6"/>
+    </row>
+    <row r="807" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I807" s="6"/>
+    </row>
+    <row r="808" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I808" s="6"/>
+    </row>
+    <row r="809" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I809" s="6"/>
+    </row>
+    <row r="810" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I810" s="6"/>
+    </row>
+    <row r="811" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I811" s="6"/>
+    </row>
+    <row r="812" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I812" s="6"/>
+    </row>
+    <row r="813" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I813" s="6"/>
+    </row>
+    <row r="814" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I814" s="6"/>
+    </row>
+    <row r="815" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I815" s="6"/>
+    </row>
+    <row r="816" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I816" s="6"/>
+    </row>
+    <row r="817" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I817" s="6"/>
+    </row>
+    <row r="818" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I818" s="6"/>
+    </row>
+    <row r="819" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I819" s="6"/>
+    </row>
+    <row r="820" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I820" s="6"/>
+    </row>
+    <row r="821" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I821" s="6"/>
+    </row>
+    <row r="822" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I822" s="6"/>
+    </row>
+    <row r="823" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I823" s="6"/>
+    </row>
+    <row r="824" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I824" s="6"/>
+    </row>
+    <row r="825" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I825" s="6"/>
+    </row>
+    <row r="826" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I826" s="6"/>
+    </row>
+    <row r="827" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I827" s="6"/>
+    </row>
+    <row r="828" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I828" s="6"/>
+    </row>
+    <row r="829" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I829" s="6"/>
+    </row>
+    <row r="830" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I830" s="6"/>
+    </row>
+    <row r="831" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I831" s="6"/>
+    </row>
+    <row r="832" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I832" s="6"/>
+    </row>
+    <row r="833" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I833" s="6"/>
+    </row>
+    <row r="834" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I834" s="6"/>
+    </row>
+    <row r="835" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I835" s="6"/>
+    </row>
+    <row r="836" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I836" s="6"/>
+    </row>
+    <row r="837" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I837" s="6"/>
+    </row>
+    <row r="838" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I838" s="6"/>
+    </row>
+    <row r="839" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I839" s="6"/>
+    </row>
+    <row r="840" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I840" s="6"/>
+    </row>
+    <row r="841" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I841" s="6"/>
+    </row>
+    <row r="842" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I842" s="6"/>
+    </row>
+    <row r="843" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I843" s="6"/>
+    </row>
+    <row r="844" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I844" s="6"/>
+    </row>
+    <row r="845" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I845" s="6"/>
+    </row>
+    <row r="846" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I846" s="6"/>
+    </row>
+    <row r="847" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I847" s="6"/>
+    </row>
+    <row r="848" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I848" s="6"/>
+    </row>
+    <row r="849" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I849" s="6"/>
+    </row>
+    <row r="850" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I850" s="6"/>
+    </row>
+    <row r="851" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I851" s="6"/>
+    </row>
+    <row r="852" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I852" s="6"/>
+    </row>
+    <row r="853" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I853" s="6"/>
+    </row>
+    <row r="854" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I854" s="6"/>
+    </row>
+    <row r="855" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I855" s="6"/>
+    </row>
+    <row r="856" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I856" s="6"/>
+    </row>
+    <row r="857" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I857" s="6"/>
+    </row>
+    <row r="858" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I858" s="6"/>
+    </row>
+    <row r="859" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I859" s="6"/>
+    </row>
+    <row r="860" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I860" s="6"/>
+    </row>
+    <row r="861" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I861" s="6"/>
+    </row>
+    <row r="862" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I862" s="6"/>
+    </row>
+    <row r="863" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I863" s="6"/>
+    </row>
+    <row r="864" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I864" s="6"/>
+    </row>
+    <row r="865" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I865" s="6"/>
+    </row>
+    <row r="866" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I866" s="6"/>
+    </row>
+    <row r="867" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I867" s="6"/>
+    </row>
+    <row r="868" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I868" s="6"/>
+    </row>
+    <row r="869" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I869" s="6"/>
+    </row>
+    <row r="870" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I870" s="6"/>
+    </row>
+    <row r="871" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I871" s="6"/>
+    </row>
+    <row r="872" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I872" s="6"/>
+    </row>
+    <row r="873" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I873" s="6"/>
+    </row>
+    <row r="874" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I874" s="6"/>
+    </row>
+    <row r="875" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I875" s="6"/>
+    </row>
+    <row r="876" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I876" s="6"/>
+    </row>
+    <row r="877" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I877" s="6"/>
+    </row>
+    <row r="878" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I878" s="6"/>
+    </row>
+    <row r="879" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I879" s="6"/>
+    </row>
+    <row r="880" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I880" s="6"/>
+    </row>
+    <row r="881" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I881" s="6"/>
+    </row>
+    <row r="882" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I882" s="6"/>
+    </row>
+    <row r="883" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I883" s="6"/>
+    </row>
+    <row r="884" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I884" s="6"/>
+    </row>
+    <row r="885" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I885" s="6"/>
+    </row>
+    <row r="886" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I886" s="6"/>
+    </row>
+    <row r="887" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I887" s="6"/>
+    </row>
+    <row r="888" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I888" s="6"/>
+    </row>
+    <row r="889" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I889" s="6"/>
+    </row>
+    <row r="890" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I890" s="6"/>
+    </row>
+    <row r="891" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I891" s="6"/>
+    </row>
+    <row r="892" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I892" s="6"/>
+    </row>
+    <row r="893" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I893" s="6"/>
+    </row>
+    <row r="894" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I894" s="6"/>
+    </row>
+    <row r="895" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I895" s="6"/>
+    </row>
+    <row r="896" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I896" s="6"/>
+    </row>
+    <row r="897" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I897" s="6"/>
+    </row>
+    <row r="898" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I898" s="6"/>
+    </row>
+    <row r="899" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I899" s="6"/>
+    </row>
+    <row r="900" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I900" s="6"/>
+    </row>
+    <row r="901" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I901" s="6"/>
+    </row>
+    <row r="902" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I902" s="6"/>
+    </row>
+    <row r="903" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I903" s="6"/>
+    </row>
+    <row r="904" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I904" s="6"/>
+    </row>
+    <row r="905" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I905" s="6"/>
+    </row>
+    <row r="906" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I906" s="6"/>
+    </row>
+    <row r="907" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I907" s="6"/>
+    </row>
+    <row r="908" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I908" s="6"/>
+    </row>
+    <row r="909" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I909" s="6"/>
+    </row>
+    <row r="910" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I910" s="6"/>
+    </row>
+    <row r="911" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I911" s="6"/>
+    </row>
+    <row r="912" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I912" s="6"/>
+    </row>
+    <row r="913" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I913" s="6"/>
+    </row>
+    <row r="914" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I914" s="6"/>
+    </row>
+    <row r="915" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I915" s="6"/>
+    </row>
+    <row r="916" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I916" s="6"/>
+    </row>
+    <row r="917" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I917" s="6"/>
+    </row>
+    <row r="918" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I918" s="6"/>
+    </row>
+    <row r="919" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I919" s="6"/>
+    </row>
+    <row r="920" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I920" s="6"/>
+    </row>
+    <row r="921" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I921" s="6"/>
+    </row>
+    <row r="922" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I922" s="6"/>
+    </row>
+    <row r="923" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I923" s="6"/>
+    </row>
+    <row r="924" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I924" s="6"/>
+    </row>
+    <row r="925" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I925" s="6"/>
+    </row>
+    <row r="926" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I926" s="6"/>
+    </row>
+    <row r="927" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I927" s="6"/>
+    </row>
+    <row r="928" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I928" s="6"/>
+    </row>
+    <row r="929" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I929" s="6"/>
+    </row>
+    <row r="930" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I930" s="6"/>
+    </row>
+    <row r="931" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I931" s="6"/>
+    </row>
+    <row r="932" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I932" s="6"/>
+    </row>
+    <row r="933" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I933" s="6"/>
+    </row>
+    <row r="934" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I934" s="6"/>
+    </row>
+    <row r="935" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I935" s="6"/>
+    </row>
+    <row r="936" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I936" s="6"/>
+    </row>
+    <row r="937" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I937" s="6"/>
+    </row>
+    <row r="938" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I938" s="6"/>
+    </row>
+    <row r="939" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I939" s="6"/>
+    </row>
+    <row r="940" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I940" s="6"/>
+    </row>
+    <row r="941" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I941" s="6"/>
+    </row>
+    <row r="942" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I942" s="6"/>
+    </row>
+    <row r="943" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I943" s="6"/>
+    </row>
+    <row r="944" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I944" s="6"/>
+    </row>
+    <row r="945" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I945" s="6"/>
+    </row>
+    <row r="946" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I946" s="6"/>
+    </row>
+    <row r="947" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I947" s="6"/>
+    </row>
+    <row r="948" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I948" s="6"/>
+    </row>
+    <row r="949" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I949" s="6"/>
+    </row>
+    <row r="950" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I950" s="6"/>
+    </row>
+    <row r="951" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I951" s="6"/>
+    </row>
+    <row r="952" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I952" s="6"/>
+    </row>
+    <row r="953" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I953" s="6"/>
+    </row>
+    <row r="954" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I954" s="6"/>
+    </row>
+    <row r="955" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I955" s="6"/>
+    </row>
+    <row r="956" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I956" s="6"/>
+    </row>
+    <row r="957" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I957" s="6"/>
+    </row>
+    <row r="958" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I958" s="6"/>
+    </row>
+    <row r="959" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I959" s="6"/>
+    </row>
+    <row r="960" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I960" s="6"/>
+    </row>
+    <row r="961" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I961" s="6"/>
+    </row>
+    <row r="962" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I962" s="6"/>
+    </row>
+    <row r="963" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I963" s="6"/>
+    </row>
+    <row r="964" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I964" s="6"/>
+    </row>
+    <row r="965" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I965" s="6"/>
+    </row>
+    <row r="966" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I966" s="6"/>
+    </row>
+    <row r="967" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I967" s="6"/>
+    </row>
+    <row r="968" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I968" s="6"/>
+    </row>
+    <row r="969" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I969" s="6"/>
+    </row>
+    <row r="970" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I970" s="6"/>
+    </row>
+    <row r="971" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I971" s="6"/>
+    </row>
+    <row r="972" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I972" s="6"/>
+    </row>
+    <row r="973" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I973" s="6"/>
+    </row>
+    <row r="974" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I974" s="6"/>
+    </row>
+    <row r="975" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I975" s="6"/>
+    </row>
+    <row r="976" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I976" s="6"/>
+    </row>
+    <row r="977" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I977" s="6"/>
+    </row>
+    <row r="978" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I978" s="6"/>
+    </row>
+    <row r="979" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I979" s="6"/>
+    </row>
+    <row r="980" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I980" s="6"/>
+    </row>
+    <row r="981" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I981" s="6"/>
+    </row>
+    <row r="982" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I982" s="6"/>
+    </row>
+    <row r="983" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I983" s="6"/>
+    </row>
+    <row r="984" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I984" s="6"/>
+    </row>
+    <row r="985" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I985" s="6"/>
+    </row>
+    <row r="986" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I986" s="6"/>
+    </row>
+    <row r="987" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I987" s="6"/>
+    </row>
+    <row r="988" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I988" s="6"/>
+    </row>
+    <row r="989" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I989" s="6"/>
+    </row>
+    <row r="990" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I990" s="6"/>
+    </row>
+    <row r="991" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I991" s="6"/>
+    </row>
+    <row r="992" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I992" s="6"/>
+    </row>
+    <row r="993" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I993" s="6"/>
+    </row>
+    <row r="994" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I994" s="6"/>
+    </row>
+    <row r="995" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I995" s="6"/>
+    </row>
+    <row r="996" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I996" s="6"/>
+    </row>
+    <row r="997" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I997" s="6"/>
+    </row>
+    <row r="998" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I998" s="6"/>
+    </row>
+    <row r="999" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I999" s="6"/>
+    </row>
+    <row r="1000" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I1000" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I1000" xr:uid="{6D97A4ED-A204-4FD8-B5D2-22572CBAE8F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>